--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_residual_mean_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_residual_mean_kernel.xlsx
@@ -10,6 +10,8 @@
     <sheet name="residual_mean_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="residual_mean_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="residual_mean_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="residual_mean_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="residual_mean_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1469,4 +1471,704 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>68.13873822437911</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9250313874334097</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.681387382243791</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6610803471915172</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>75.63655394942863</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8785351259013018</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.7563655394942863</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.7350748175856296</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>85.26008010449917</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.383617733605206</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.8526008010449917</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.8541806979199263</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>70.5763890691096</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8729394224161903</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7057638906910959</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6839380402045379</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>62.13384198825249</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.007787306358417</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6213384198825249</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5757619081213455</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>68.14911893701503</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8469974937538305</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6814911893701503</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6727730632231028</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>73.33601501743094</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.6965536038701734</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7333601501743094</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.7102805504986647</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>78.18389432434536</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5235977781315644</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7818389432434537</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7792794493915542</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>75.71276568136402</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5992132582391302</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.7571276568136402</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.7501119974706956</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>73.4981271464286</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8943216988195977</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.734981271464286</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.7087304743179847</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>60.58209846105935</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.18890698235482</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.6058209846105935</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.6007065138244883</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>67.84721321118695</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9398780475060144</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6784721321118695</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.6618006105161808</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>89.29359250512547</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.3039807493880896</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8929359250512547</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8907034439307233</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>84.11491448887966</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7611716552991614</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8411491448887967</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8243256195076892</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>96.02254344760767</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1211270911722143</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9602254344760768</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9599299671334901</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>75.23239243707414</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7295772889499413</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7523239243707412</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7379118333891689</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>64.82547426880856</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7990164712071419</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6482547426880856</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6407863350750318</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>69.46452823986367</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7631048667555055</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6946452823986367</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6805428322905189</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>79.45284993814826</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5056688524782658</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7945284993814825</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7929653325789319</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>62.46818744106783</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8842191105087599</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6246818744106782</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6161911600357327</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>53.93948044533257</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.097685378044844</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5393948044533257</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5221102172697776</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>61.11350444207994</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9086411302288374</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6111350444207995</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6004775775084009</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>70.66843138781476</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7559492145975431</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.7066843138781478</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6885038689709343</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>70.91298367632938</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6482755344981947</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7091298367632938</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7007772817503855</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>63.70850958918329</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7648282711704573</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.637085095891833</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6349176214560975</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>63.41646554035934</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8673889627059301</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6341646554035935</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6064020872505407</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>53.6717445652644</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.087584475427866</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.536717445652644</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.5149857911095311</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>61.71567228090208</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.9045225686083237</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6171567228090209</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5882933114909628</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>78.22879090649573</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.6017369461556276</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7822879090649574</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7808998445897355</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>78.79601034611025</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.5069450737753262</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7879601034611026</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.7845153058200666</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>88.42230469121705</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.279890592986097</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8842230469121706</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8805464433984229</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>68.05366251726515</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7583638299432479</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6805366251726516</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.668861000706338</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_residual_mean_kernel.xlsx
+++ b/results_cnn_subnetwork_evaluation/cnn_validation_SubRCM_pcc_by_3d_euclidean_prj_residual_mean_kernel.xlsx
@@ -10,8 +10,10 @@
     <sheet name="residual_mean_sr_1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="residual_mean_sr_0.5" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="residual_mean_sr_0.3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="residual_mean_sr_0.2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="residual_mean_sr_0.1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="residual_mean_sr_0.25" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="residual_mean_sr_0.2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="residual_mean_sr_0.15" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="residual_mean_sr_0.1" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -471,16 +473,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.5103244837758</v>
+        <v>95.89987802662652</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1529041104474648</v>
+        <v>0.1188495259998793</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9351032448377581</v>
+        <v>0.9589987802662654</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9335855098631682</v>
+        <v>0.9588757800757625</v>
       </c>
     </row>
     <row r="3">
@@ -490,16 +492,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.44872360487548</v>
+        <v>92.80305192951496</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3058185779908148</v>
+        <v>0.2912596472785595</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9244872360487548</v>
+        <v>0.9280305192951497</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9170685246795834</v>
+        <v>0.9189595962512642</v>
       </c>
     </row>
     <row r="4">
@@ -509,16 +511,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>96.22436180243774</v>
+        <v>94.57227138643069</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1259665054387976</v>
+        <v>0.1683843279390203</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9622436180243774</v>
+        <v>0.9457227138643068</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9612757949252595</v>
+        <v>0.943546988575805</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>95.28023598820059</v>
+        <v>93.33350634521059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1208216250318704</v>
+        <v>0.1702127111854982</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9528023598820059</v>
+        <v>0.933335063452106</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9516623942259927</v>
+        <v>0.9320935933043767</v>
       </c>
     </row>
     <row r="6">
@@ -547,16 +549,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.07026877395133</v>
+        <v>79.53321395513802</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4919639469386311</v>
+        <v>0.5245483926856347</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8307026877395133</v>
+        <v>0.7953321395513802</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8125592339298059</v>
+        <v>0.7794852847800903</v>
       </c>
     </row>
     <row r="7">
@@ -566,16 +568,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.32847169958218</v>
+        <v>90.20943087742974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2140129552998891</v>
+        <v>0.2805670593554775</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9132847169958218</v>
+        <v>0.9020943087742973</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9075421433518562</v>
+        <v>0.8935217423207433</v>
       </c>
     </row>
     <row r="8">
@@ -585,16 +587,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>92.12389380530973</v>
+        <v>92.18289085545723</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2118315477942815</v>
+        <v>0.1819670457509346</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9212389380530974</v>
+        <v>0.9218289085545722</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9180855026365189</v>
+        <v>0.9207618019963097</v>
       </c>
     </row>
     <row r="9">
@@ -604,16 +606,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>92.53704616821945</v>
+        <v>92.50789366690023</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1921748853647538</v>
+        <v>0.178372311051741</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9253704616821945</v>
+        <v>0.9250789366690023</v>
       </c>
       <c r="E9" t="n">
-        <v>0.924934573717936</v>
+        <v>0.923182844088943</v>
       </c>
     </row>
     <row r="10">
@@ -623,16 +625,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>89.91150442477877</v>
+        <v>91.12094395280236</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2775697975128423</v>
+        <v>0.2290932142282448</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8991150442477875</v>
+        <v>0.9112094395280236</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8938115140989945</v>
+        <v>0.909295685602674</v>
       </c>
     </row>
     <row r="11">
@@ -642,16 +644,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>91.94690265486726</v>
+        <v>90.32448377581122</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1835967287655232</v>
+        <v>0.2443841065558748</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9194690265486726</v>
+        <v>0.903244837758112</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9182677563908503</v>
+        <v>0.8974395184523483</v>
       </c>
     </row>
     <row r="12">
@@ -661,16 +663,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>82.41887905604719</v>
+        <v>82.36074706528603</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5898647707210329</v>
+        <v>0.5905056054801511</v>
       </c>
       <c r="D12" t="n">
-        <v>0.824188790560472</v>
+        <v>0.8236074706528603</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8128889671783612</v>
+        <v>0.8154486008232169</v>
       </c>
     </row>
     <row r="13">
@@ -680,16 +682,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>82.00607271689202</v>
+        <v>81.94707566674452</v>
       </c>
       <c r="C13" t="n">
-        <v>0.627877121893107</v>
+        <v>0.6305689108771427</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8200607271689201</v>
+        <v>0.8194707566674453</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8052830137527053</v>
+        <v>0.8036029924447268</v>
       </c>
     </row>
     <row r="14">
@@ -699,16 +701,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>98.55457227138643</v>
+        <v>98.25958702064898</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0497210186936248</v>
+        <v>0.05737144872687926</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9855457227138643</v>
+        <v>0.9825958702064896</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9855554846568134</v>
+        <v>0.9825801866247641</v>
       </c>
     </row>
     <row r="15">
@@ -718,16 +720,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>99.38053097345133</v>
+        <v>99.23338437183713</v>
       </c>
       <c r="C15" t="n">
-        <v>0.01736067944798189</v>
+        <v>0.02016010395710926</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9938053097345133</v>
+        <v>0.9923338437183713</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9938600619083878</v>
+        <v>0.9923896471419107</v>
       </c>
     </row>
     <row r="16">
@@ -737,16 +739,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.61061946902655</v>
+        <v>94.63126843657817</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06022515877011377</v>
+        <v>0.1351235222775595</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9761061946902654</v>
+        <v>0.9463126843657816</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9756937365835446</v>
+        <v>0.9421403594498141</v>
       </c>
     </row>
     <row r="17">
@@ -756,16 +758,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>91.89016052618679</v>
+        <v>91.26130848882775</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2414472953407153</v>
+        <v>0.2547578622233138</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9189016052618678</v>
+        <v>0.9126130848882779</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9141382807933185</v>
+        <v>0.9075549747955166</v>
       </c>
     </row>
   </sheetData>
@@ -821,16 +823,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>84.66457322295176</v>
+        <v>86.49071358748778</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4564875550180053</v>
+        <v>0.3467530998634175</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8466457322295176</v>
+        <v>0.8649071358748778</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8391988341704908</v>
+        <v>0.8622199776026405</v>
       </c>
     </row>
     <row r="3">
@@ -840,16 +842,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.91560480626995</v>
+        <v>82.7584148651805</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3685582951196314</v>
+        <v>0.3922670806402797</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8391560480626996</v>
+        <v>0.8275841486518049</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8329238073699952</v>
+        <v>0.8149562545841817</v>
       </c>
     </row>
     <row r="4">
@@ -859,16 +861,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>89.08710282960926</v>
+        <v>93.51049749565308</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3144075189717114</v>
+        <v>0.1817746762768365</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8908710282960925</v>
+        <v>0.9351049749565308</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8891543412520747</v>
+        <v>0.9356726091163095</v>
       </c>
     </row>
     <row r="5">
@@ -878,16 +880,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>90.50216697376274</v>
+        <v>81.32829868770492</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2634334372201314</v>
+        <v>0.676404401792873</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9050216697376274</v>
+        <v>0.8132829868770491</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9032089696221354</v>
+        <v>0.7973551508486075</v>
       </c>
     </row>
     <row r="6">
@@ -897,16 +899,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>65.70766183098469</v>
+        <v>75.64927032240763</v>
       </c>
       <c r="C6" t="n">
-        <v>1.081972953586956</v>
+        <v>0.6444500154194733</v>
       </c>
       <c r="D6" t="n">
-        <v>0.657076618309847</v>
+        <v>0.7564927032240764</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6446510799743018</v>
+        <v>0.7413653180237535</v>
       </c>
     </row>
     <row r="7">
@@ -916,16 +918,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>86.96822636874022</v>
+        <v>85.90576043045355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3924999324760089</v>
+        <v>0.364877903709809</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8696822636874021</v>
+        <v>0.8590576043045355</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8589166131366224</v>
+        <v>0.8573016641779535</v>
       </c>
     </row>
     <row r="8">
@@ -935,16 +937,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>84.16811564113877</v>
+        <v>87.14677462607808</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3675498854058484</v>
+        <v>0.336431918409653</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8416811564113876</v>
+        <v>0.8714677462607808</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8395382740284438</v>
+        <v>0.8608621601045343</v>
       </c>
     </row>
     <row r="9">
@@ -954,16 +956,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>90.44265088798346</v>
+        <v>88.82040502080467</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2386880387008811</v>
+        <v>0.2792165387732287</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9044265088798346</v>
+        <v>0.8882040502080468</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9037789467074253</v>
+        <v>0.885960079353698</v>
       </c>
     </row>
     <row r="10">
@@ -973,16 +975,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>87.5533525376517</v>
+        <v>87.93717938736495</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3291188997565769</v>
+        <v>0.3163110671448521</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8755335253765171</v>
+        <v>0.8793717938736494</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8722119154557282</v>
+        <v>0.8797607084914232</v>
       </c>
     </row>
     <row r="11">
@@ -992,16 +994,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.36541838597221</v>
+        <v>83.42303999169543</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4377454427354678</v>
+        <v>0.4493879717425443</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8236541838597219</v>
+        <v>0.8342303999169542</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8182487008609943</v>
+        <v>0.8259197486892049</v>
       </c>
     </row>
     <row r="12">
@@ -1011,16 +1013,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.7322468187441</v>
+        <v>73.92486094170366</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7247321814997122</v>
+        <v>0.7556000037739674</v>
       </c>
       <c r="D12" t="n">
-        <v>0.777322468187441</v>
+        <v>0.7392486094170365</v>
       </c>
       <c r="E12" t="n">
-        <v>0.7783728632752751</v>
+        <v>0.7309211031709162</v>
       </c>
     </row>
     <row r="13">
@@ -1030,16 +1032,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>81.68280002422166</v>
+        <v>78.91218782169395</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6344836777231346</v>
+        <v>0.6189419367661079</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8168280002422167</v>
+        <v>0.7891218782169396</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8004602567389961</v>
+        <v>0.7829562019688744</v>
       </c>
     </row>
     <row r="14">
@@ -1049,16 +1051,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>97.1386430678466</v>
+        <v>95.33923303834808</v>
       </c>
       <c r="C14" t="n">
-        <v>0.07965116588311502</v>
+        <v>0.1234427772330188</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9713864306784661</v>
+        <v>0.9533923303834808</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9713570118590296</v>
+        <v>0.9533939262436135</v>
       </c>
     </row>
     <row r="15">
@@ -1068,16 +1070,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>94.89675516224189</v>
+        <v>96.04737065199527</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1324057357835954</v>
+        <v>0.1095994971214926</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9489675516224189</v>
+        <v>0.9604737065199526</v>
       </c>
       <c r="E15" t="n">
-        <v>0.948410467308428</v>
+        <v>0.9606323469505558</v>
       </c>
     </row>
     <row r="16">
@@ -1087,16 +1089,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.22418879056048</v>
+        <v>95.19174041297936</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09881325055688515</v>
+        <v>0.1329424041153895</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9622418879056047</v>
+        <v>0.9519174041297935</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9617937873802711</v>
+        <v>0.9509390631637628</v>
       </c>
     </row>
     <row r="17">
@@ -1106,16 +1108,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>86.20330048991195</v>
+        <v>86.15904981877004</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3947031980291774</v>
+        <v>0.3818934195188629</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8620330048991195</v>
+        <v>0.8615904981877004</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8574817246093472</v>
+        <v>0.8560144208326685</v>
       </c>
     </row>
   </sheetData>
@@ -1171,16 +1173,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.90958399294111</v>
+        <v>79.23736364501423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6008473580082258</v>
+        <v>0.5641340127777463</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7790958399294111</v>
+        <v>0.7923736364501422</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7572314048378622</v>
+        <v>0.7844251398245349</v>
       </c>
     </row>
     <row r="3">
@@ -1190,16 +1192,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.31765845725309</v>
+        <v>79.9282865768735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4826184272222842</v>
+        <v>0.5443904812370117</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8131765845725309</v>
+        <v>0.799282865768735</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8116198525573008</v>
+        <v>0.7833449713981324</v>
       </c>
     </row>
     <row r="4">
@@ -1209,16 +1211,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86.29183643457124</v>
+        <v>87.23025285685863</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3298781891489246</v>
+        <v>0.3468432831849592</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8629183643457123</v>
+        <v>0.8723025285685863</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8632322742759551</v>
+        <v>0.8730020359564321</v>
       </c>
     </row>
     <row r="5">
@@ -1228,16 +1230,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78.73571570688327</v>
+        <v>78.86685870985043</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6856078995391727</v>
+        <v>0.6649420907488093</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7873571570688328</v>
+        <v>0.7886685870985043</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7786096039701459</v>
+        <v>0.7846536831322048</v>
       </c>
     </row>
     <row r="6">
@@ -1247,16 +1249,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>67.87325149871539</v>
+        <v>65.34122267493663</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8794200857868418</v>
+        <v>0.9324547370274863</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6787325149871538</v>
+        <v>0.6534122267493664</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6526964649811653</v>
+        <v>0.6371922266905389</v>
       </c>
     </row>
     <row r="7">
@@ -1266,16 +1268,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.51288505955934</v>
+        <v>81.19499303627194</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5789674617350101</v>
+        <v>0.5216779881156981</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7951288505955934</v>
+        <v>0.8119499303627193</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7846954100278005</v>
+        <v>0.8025293840751899</v>
       </c>
     </row>
     <row r="8">
@@ -1285,16 +1287,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>80.33936279725603</v>
+        <v>78.44419069369113</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4869214307827254</v>
+        <v>0.5693121728254482</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8033936279725603</v>
+        <v>0.7844419069369112</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7934226970691501</v>
+        <v>0.7777270276622671</v>
       </c>
     </row>
     <row r="9">
@@ -1304,16 +1306,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>80.81203124594504</v>
+        <v>75.58689954065346</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5029511939268559</v>
+        <v>0.6958545115249459</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8081203124594504</v>
+        <v>0.7558689954065347</v>
       </c>
       <c r="E9" t="n">
-        <v>0.794836744221216</v>
+        <v>0.7451965856973493</v>
       </c>
     </row>
     <row r="10">
@@ -1323,16 +1325,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77.44591216186991</v>
+        <v>78.64600904852118</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5608935873800267</v>
+        <v>0.5941418362354549</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7744591216186991</v>
+        <v>0.7864600904852118</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7562016516125942</v>
+        <v>0.7707648675909003</v>
       </c>
     </row>
     <row r="11">
@@ -1342,16 +1344,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>70.19974221230288</v>
+        <v>77.37316066747982</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9460016560580697</v>
+        <v>0.614095997371866</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7019974221230287</v>
+        <v>0.7737316066747982</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6747947051968072</v>
+        <v>0.7683566200936511</v>
       </c>
     </row>
     <row r="12">
@@ -1361,16 +1363,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68.88545748665646</v>
+        <v>69.85977387347641</v>
       </c>
       <c r="C12" t="n">
-        <v>0.922813186608255</v>
+        <v>0.848987380679076</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6888545748665645</v>
+        <v>0.6985977387347642</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6893282499366687</v>
+        <v>0.6961070769258233</v>
       </c>
     </row>
     <row r="13">
@@ -1380,16 +1382,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>74.34597185096757</v>
+        <v>77.97394441128384</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7855978743017962</v>
+        <v>0.6031425319612026</v>
       </c>
       <c r="D13" t="n">
-        <v>0.7434597185096756</v>
+        <v>0.7797394441128384</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7271718473216791</v>
+        <v>0.7742319543415138</v>
       </c>
     </row>
     <row r="14">
@@ -1399,16 +1401,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>91.32743362831859</v>
+        <v>93.03990518949126</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2111589203802093</v>
+        <v>0.1656530769949313</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9132743362831859</v>
+        <v>0.9303990518949126</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9112817111966809</v>
+        <v>0.9305686175117526</v>
       </c>
     </row>
     <row r="15">
@@ -1418,16 +1420,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>90.56462426145555</v>
+        <v>93.57710706840025</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2224143082955076</v>
+        <v>0.1621279743234481</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9056462426145554</v>
+        <v>0.9357710706840023</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9012317727794106</v>
+        <v>0.9359007503179105</v>
       </c>
     </row>
     <row r="16">
@@ -1437,16 +1439,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.40533222605731</v>
+        <v>95.69321533923303</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1024134711171276</v>
+        <v>0.1143763917835865</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9640533222605733</v>
+        <v>0.9569321533923304</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9637055610039994</v>
+        <v>0.9564367085082178</v>
       </c>
     </row>
     <row r="17">
@@ -1456,16 +1458,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>80.13111993471685</v>
+        <v>80.79954555546905</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5532336700194022</v>
+        <v>0.5294756311194446</v>
       </c>
       <c r="D17" t="n">
-        <v>0.8013111993471684</v>
+        <v>0.8079954555546904</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7906706633992292</v>
+        <v>0.8013625099817613</v>
       </c>
     </row>
   </sheetData>
@@ -1521,16 +1523,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68.13873822437911</v>
+        <v>76.32003737056549</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9250313874334097</v>
+        <v>0.6486191757799437</v>
       </c>
       <c r="D2" t="n">
-        <v>0.681387382243791</v>
+        <v>0.763200373705655</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6610803471915172</v>
+        <v>0.732684328807099</v>
       </c>
     </row>
     <row r="3">
@@ -1540,16 +1542,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.63655394942863</v>
+        <v>76.01242225278766</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8785351259013018</v>
+        <v>0.5784901859238744</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7563655394942863</v>
+        <v>0.7601242225278766</v>
       </c>
       <c r="E3" t="n">
-        <v>0.7350748175856296</v>
+        <v>0.7478489494319158</v>
       </c>
     </row>
     <row r="4">
@@ -1559,16 +1561,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.26008010449917</v>
+        <v>83.96266403688614</v>
       </c>
       <c r="C4" t="n">
-        <v>0.383617733605206</v>
+        <v>0.4539095780656983</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8526008010449917</v>
+        <v>0.8396266403688614</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8541806979199263</v>
+        <v>0.8368615372767214</v>
       </c>
     </row>
     <row r="5">
@@ -1578,16 +1580,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>70.5763890691096</v>
+        <v>77.3572435747714</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8729394224161903</v>
+        <v>0.6397266302257776</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7057638906910959</v>
+        <v>0.7735724357477141</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6839380402045379</v>
+        <v>0.7670893199730864</v>
       </c>
     </row>
     <row r="6">
@@ -1597,16 +1599,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>62.13384198825249</v>
+        <v>62.59197743925121</v>
       </c>
       <c r="C6" t="n">
-        <v>1.007787306358417</v>
+        <v>1.145070421695709</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6213384198825249</v>
+        <v>0.625919774392512</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5757619081213455</v>
+        <v>0.5958399952265735</v>
       </c>
     </row>
     <row r="7">
@@ -1616,16 +1618,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.14911893701503</v>
+        <v>75.40402598638397</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8469974937538305</v>
+        <v>0.9003627512603998</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6814911893701503</v>
+        <v>0.7540402598638397</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6727730632231028</v>
+        <v>0.7226753818476233</v>
       </c>
     </row>
     <row r="8">
@@ -1635,16 +1637,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.33601501743094</v>
+        <v>76.58509156653605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6965536038701734</v>
+        <v>0.6003648961583774</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7333601501743094</v>
+        <v>0.7658509156653605</v>
       </c>
       <c r="E8" t="n">
-        <v>0.7102805504986647</v>
+        <v>0.7577906882993863</v>
       </c>
     </row>
     <row r="9">
@@ -1654,16 +1656,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>78.18389432434536</v>
+        <v>74.96561388939351</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5235977781315644</v>
+        <v>0.6274872343987227</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7818389432434537</v>
+        <v>0.7496561388939351</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7792794493915542</v>
+        <v>0.741414427955882</v>
       </c>
     </row>
     <row r="10">
@@ -1673,16 +1675,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>75.71276568136402</v>
+        <v>80.06989679841521</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5992132582391302</v>
+        <v>0.4811367504919569</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7571276568136402</v>
+        <v>0.8006989679841521</v>
       </c>
       <c r="E10" t="n">
-        <v>0.7501119974706956</v>
+        <v>0.7971522232127735</v>
       </c>
     </row>
     <row r="11">
@@ -1692,16 +1694,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>73.4981271464286</v>
+        <v>76.00031142137907</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8943216988195977</v>
+        <v>0.6075112646251607</v>
       </c>
       <c r="D11" t="n">
-        <v>0.734981271464286</v>
+        <v>0.7600031142137909</v>
       </c>
       <c r="E11" t="n">
-        <v>0.7087304743179847</v>
+        <v>0.7538732472876977</v>
       </c>
     </row>
     <row r="12">
@@ -1711,16 +1713,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>60.58209846105935</v>
+        <v>64.85090701476656</v>
       </c>
       <c r="C12" t="n">
-        <v>1.18890698235482</v>
+        <v>1.049909984134138</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6058209846105935</v>
+        <v>0.6485090701476656</v>
       </c>
       <c r="E12" t="n">
-        <v>0.6007065138244883</v>
+        <v>0.6426860477518527</v>
       </c>
     </row>
     <row r="13">
@@ -1730,16 +1732,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.84721321118695</v>
+        <v>74.93767247121515</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9398780475060144</v>
+        <v>0.7696757906426986</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6784721321118695</v>
+        <v>0.7493767247121514</v>
       </c>
       <c r="E13" t="n">
-        <v>0.6618006105161808</v>
+        <v>0.7375667487710045</v>
       </c>
     </row>
     <row r="14">
@@ -1749,16 +1751,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>89.29359250512547</v>
+        <v>92.83220443083417</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3039807493880896</v>
+        <v>0.2257643622734273</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8929359250512547</v>
+        <v>0.9283220443083418</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8907034439307233</v>
+        <v>0.9283452760635104</v>
       </c>
     </row>
     <row r="15">
@@ -1768,16 +1770,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>84.11491448887966</v>
+        <v>86.74209984515437</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7611716552991614</v>
+        <v>0.375086983530006</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8411491448887967</v>
+        <v>0.8674209984515437</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8243256195076892</v>
+        <v>0.8641080966740861</v>
       </c>
     </row>
     <row r="16">
@@ -1787,16 +1789,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>96.02254344760767</v>
+        <v>95.40030623102277</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1211270911722143</v>
+        <v>0.1323596432952096</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9602254344760768</v>
+        <v>0.9540030623102276</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9599299671334901</v>
+        <v>0.9531912807312072</v>
       </c>
     </row>
     <row r="17">
@@ -1806,16 +1808,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>75.23239243707414</v>
+        <v>78.26883162195753</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7295772889499413</v>
+        <v>0.6156983768334067</v>
       </c>
       <c r="D17" t="n">
-        <v>0.7523239243707412</v>
+        <v>0.7826883162195751</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7379118333891689</v>
+        <v>0.7719418366206946</v>
       </c>
     </row>
   </sheetData>
@@ -1871,16 +1873,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>64.82547426880856</v>
+        <v>73.73792160831842</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7990164712071419</v>
+        <v>0.6633093869546428</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6482547426880856</v>
+        <v>0.7373792160831841</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6407863350750318</v>
+        <v>0.7256135300748351</v>
       </c>
     </row>
     <row r="3">
@@ -1890,16 +1892,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.46452823986367</v>
+        <v>76.90429848009066</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7631048667555055</v>
+        <v>0.6499930186818044</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6946452823986367</v>
+        <v>0.7690429848009066</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6805428322905189</v>
+        <v>0.7602661911490819</v>
       </c>
     </row>
     <row r="4">
@@ -1909,16 +1911,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>79.45284993814826</v>
+        <v>77.6184050035035</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5056688524782658</v>
+        <v>0.6414051642563814</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7945284993814825</v>
+        <v>0.7761840500350349</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7929653325789319</v>
+        <v>0.7737888272897688</v>
       </c>
     </row>
     <row r="5">
@@ -1928,16 +1930,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.46818744106783</v>
+        <v>76.86805249180357</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8842191105087599</v>
+        <v>0.6594028217097123</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6246818744106782</v>
+        <v>0.7686805249180356</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6161911600357327</v>
+        <v>0.7653122332874709</v>
       </c>
     </row>
     <row r="6">
@@ -1947,16 +1949,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.93948044533257</v>
+        <v>60.41877524892084</v>
       </c>
       <c r="C6" t="n">
-        <v>1.097685378044844</v>
+        <v>1.117934119825562</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5393948044533257</v>
+        <v>0.6041877524892084</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5221102172697776</v>
+        <v>0.5689839742492699</v>
       </c>
     </row>
     <row r="7">
@@ -1966,16 +1968,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.11350444207994</v>
+        <v>71.89560463325807</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9086411302288374</v>
+        <v>0.9249389039973417</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6111350444207995</v>
+        <v>0.7189560463325807</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6004775775084009</v>
+        <v>0.7016831276471313</v>
       </c>
     </row>
     <row r="8">
@@ -1985,16 +1987,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>70.66843138781476</v>
+        <v>75.32617064161454</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7559492145975431</v>
+        <v>0.632370981760323</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7066843138781478</v>
+        <v>0.7532617064161455</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6885038689709343</v>
+        <v>0.7328077816679407</v>
       </c>
     </row>
     <row r="9">
@@ -2004,16 +2006,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>70.91298367632938</v>
+        <v>78.95154802377184</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6482755344981947</v>
+        <v>0.5403761127032339</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7091298367632938</v>
+        <v>0.7895154802377183</v>
       </c>
       <c r="E9" t="n">
-        <v>0.7007772817503855</v>
+        <v>0.7835096538584111</v>
       </c>
     </row>
     <row r="10">
@@ -2023,16 +2025,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>63.70850958918329</v>
+        <v>71.06220642047076</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7648282711704573</v>
+        <v>0.6976145971876879</v>
       </c>
       <c r="D10" t="n">
-        <v>0.637085095891833</v>
+        <v>0.7106220642047076</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6349176214560975</v>
+        <v>0.6859275141599701</v>
       </c>
     </row>
     <row r="11">
@@ -2042,16 +2044,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>63.41646554035934</v>
+        <v>72.31835915535602</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8673889627059301</v>
+        <v>0.7708440241403878</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6341646554035935</v>
+        <v>0.7231835915535602</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6064020872505407</v>
+        <v>0.6948200053807246</v>
       </c>
     </row>
     <row r="12">
@@ -2061,16 +2063,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>53.6717445652644</v>
+        <v>60.76116575402902</v>
       </c>
       <c r="C12" t="n">
-        <v>1.087584475427866</v>
+        <v>1.144476976928612</v>
       </c>
       <c r="D12" t="n">
-        <v>0.536717445652644</v>
+        <v>0.6076116575402901</v>
       </c>
       <c r="E12" t="n">
-        <v>0.5149857911095311</v>
+        <v>0.5801613006687151</v>
       </c>
     </row>
     <row r="13">
@@ -2080,16 +2082,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>61.71567228090208</v>
+        <v>67.41892230901651</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9045225686083237</v>
+        <v>0.8623937213172516</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6171567228090209</v>
+        <v>0.6741892230901652</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5882933114909628</v>
+        <v>0.663836849218901</v>
       </c>
     </row>
     <row r="14">
@@ -2099,16 +2101,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>78.22879090649573</v>
+        <v>85.48983987750759</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6017369461556276</v>
+        <v>0.4847417044530933</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7822879090649574</v>
+        <v>0.8548983987750759</v>
       </c>
       <c r="E14" t="n">
-        <v>0.7808998445897355</v>
+        <v>0.8513177928597015</v>
       </c>
     </row>
     <row r="15">
@@ -2118,16 +2120,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>78.79601034611025</v>
+        <v>89.98209327070303</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5069450737753262</v>
+        <v>0.2495815585871848</v>
       </c>
       <c r="D15" t="n">
-        <v>0.7879601034611026</v>
+        <v>0.8998209327070302</v>
       </c>
       <c r="E15" t="n">
-        <v>0.7845153058200666</v>
+        <v>0.8995840745647058</v>
       </c>
     </row>
     <row r="16">
@@ -2137,16 +2139,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>88.42230469121705</v>
+        <v>92.45028071177087</v>
       </c>
       <c r="C16" t="n">
-        <v>0.279890592986097</v>
+        <v>0.2192351662059688</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8842230469121706</v>
+        <v>0.9245028071177087</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8805464433984229</v>
+        <v>0.9221834794007686</v>
       </c>
     </row>
     <row r="17">
@@ -2156,16 +2158,716 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.05366251726515</v>
+        <v>75.413576242009</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7583638299432479</v>
+        <v>0.6839078839139459</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6805366251726516</v>
+        <v>0.7541357624200902</v>
       </c>
       <c r="E17" t="n">
-        <v>0.668861000706338</v>
+        <v>0.7406530890318263</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>72.2987223072864</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.6762690463413794</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.7229872230728639</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.7124126258901977</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>69.44722705213712</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.7522676167699197</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6944722705213713</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6873867504229525</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>78.92101142743449</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5762907650011282</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.789210114274345</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.788005740760104</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>70.36220036505506</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.743576222533981</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7036220036505506</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6912850780145835</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>57.97212778657255</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.139856474846602</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5797212778657255</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5533952530451062</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>72.82026661130286</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9372649212057391</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.7282026661130286</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.7026800868816311</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>70.01323540861081</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7510513583819072</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.700132354086108</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6939544312229428</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>74.38342892239552</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6530400465397785</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7438342892239552</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.7339143586458924</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>69.74203929099733</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7186790038676312</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.6974203929099734</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6939718181670157</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>70.09256135433698</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8114404607797041</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.7009256135433698</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.6844961188965002</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>48.01339111930034</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.452624497593691</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.4801339111930034</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4724056868537942</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>60.83625290876218</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.041586137314638</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.6083625290876219</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5937411580491905</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>85.31976920215573</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.4258583456665899</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8531976920215574</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8531005751237597</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>83.76465194335591</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4365941762303313</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8376465194335591</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8348785853388863</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>93.75046496942015</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.1639132496959064</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9375046496942016</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.9349101286936261</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>71.8491567112749</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7520208215179285</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.7184915671127489</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7087025597337456</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Identifier</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>accuracy</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>loss</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>recall</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>f1_score</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>sub11ex1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>64.2463170096627</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.7872685516873996</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6424631700966271</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6335325723269347</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>sub11ex2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>64.09718077145996</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.835693017890056</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6409718077145996</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6254633425067835</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>sub11ex3</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75.59356049792818</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.6080791999896367</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7559356049792818</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.7490290022186237</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>sub12ex1</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>60.67258367286914</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.063872762521108</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.6067258367286914</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.594608644415763</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>sub12ex2</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>50.70934869678804</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.134309044728676</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5070934869678803</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4859755310855508</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>sub12ex3</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>64.45791053555827</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.9183571601907412</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.6445791053555826</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.6277790914431953</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>sub13ex1</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>67.9198781996384</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8056717788179716</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6791987819963841</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.6704984633720911</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>sub13ex2</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>72.30322061609529</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6345479911814133</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.7230322061609529</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.6974165659095688</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>sub13ex3</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>68.63493628837621</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6973516320188839</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.686349362883762</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.6761999046161147</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>sub14ex1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>60.744210590057</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9579822611063719</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6074421059005701</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.5877867132471135</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>sub14ex2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>50.75398576112251</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.210656655331453</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.507539857611225</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.4933244619054424</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>sub14ex3</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>56.33474338013305</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.020800631990035</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5633474338013305</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.5419384813011578</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>sub15ex1</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>78.01243955397538</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.5610423228392999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.7801243955397539</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.7771987133649233</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>sub15ex2</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>81.70909782956601</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.4491150375766059</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8170909782956599</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8113771075221763</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>sub15ex3</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>83.29769288661666</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.4349831169102497</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8329769288661666</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8295223173098984</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Average</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>66.63247375265647</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8079820776519936</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.6663247375265644</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.6534433941696892</v>
       </c>
     </row>
   </sheetData>
